--- a/Intrinsic.xlsx
+++ b/Intrinsic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto Fapespa Resque\artigo_marcador\marcadores\Analise_qualitativa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631fab7c83f2505c/Documentos/GitHub/Artificial_markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3F1693-A87D-4964-8366-1E8E44515408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{DF3F1693-A87D-4964-8366-1E8E44515408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{939C4481-2102-4A50-96B0-A0C5621F0DD8}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="21624" windowHeight="11244" xr2:uid="{EA9A1296-B7DC-483E-BCCF-0A0907C51025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA9A1296-B7DC-483E-BCCF-0A0907C51025}"/>
   </bookViews>
   <sheets>
     <sheet name="Intrinsic" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="140">
   <si>
     <t>Identification</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>Regular</t>
+  </si>
+  <si>
+    <t>\cite{li2017aircode}</t>
+  </si>
+  <si>
+    <t>\cite{willis2013infrastructs}</t>
   </si>
 </sst>
 </file>
@@ -1294,9 +1300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDFFA48-BF3E-4F03-8770-1E0FB5629E89}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="Q82" sqref="Q82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3408,16 +3416,16 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
@@ -3429,7 +3437,7 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
         <v>17</v>
@@ -3441,13 +3449,13 @@
         <v>18</v>
       </c>
       <c r="L43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M43" t="s">
         <v>17</v>
       </c>
       <c r="N43" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="O43" t="s">
         <v>20</v>
@@ -3458,10 +3466,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -3473,13 +3481,13 @@
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
@@ -3488,7 +3496,7 @@
         <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -3503,12 +3511,12 @@
         <v>20</v>
       </c>
       <c r="P44" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -3523,13 +3531,13 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -3544,36 +3552,36 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N45" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O45" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="P45" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -3588,19 +3596,19 @@
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O46" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="P46" t="s">
         <v>15</v>
@@ -3608,28 +3616,28 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -3638,10 +3646,10 @@
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M47" t="s">
         <v>17</v>
@@ -3653,12 +3661,12 @@
         <v>20</v>
       </c>
       <c r="P47" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -3673,13 +3681,13 @@
         <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -3688,13 +3696,13 @@
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N48" t="s">
         <v>19</v>
@@ -3703,12 +3711,12 @@
         <v>20</v>
       </c>
       <c r="P48" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -3723,13 +3731,13 @@
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
@@ -3738,13 +3746,13 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N49" t="s">
         <v>19</v>
@@ -3753,12 +3761,12 @@
         <v>20</v>
       </c>
       <c r="P49" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -3773,13 +3781,13 @@
         <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -3788,7 +3796,7 @@
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -3803,12 +3811,12 @@
         <v>20</v>
       </c>
       <c r="P50" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -3820,10 +3828,10 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -3832,10 +3840,10 @@
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K51" t="s">
         <v>18</v>
@@ -3847,7 +3855,7 @@
         <v>17</v>
       </c>
       <c r="N51" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O51" t="s">
         <v>20</v>
@@ -3858,7 +3866,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -3870,25 +3878,25 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -3897,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="N52" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O52" t="s">
         <v>20</v>
@@ -3908,7 +3916,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
@@ -3920,11 +3928,11 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
         <v>28</v>
       </c>
-      <c r="F53" t="s">
-        <v>15</v>
-      </c>
       <c r="G53" t="s">
         <v>17</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
@@ -3958,7 +3966,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
@@ -3970,10 +3978,10 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -3982,7 +3990,7 @@
         <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
@@ -3991,7 +3999,7 @@
         <v>17</v>
       </c>
       <c r="L54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M54" t="s">
         <v>17</v>
@@ -4008,10 +4016,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -4023,13 +4031,13 @@
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
         <v>17</v>
@@ -4038,10 +4046,10 @@
         <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M55" t="s">
         <v>17</v>
@@ -4058,10 +4066,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -4073,13 +4081,13 @@
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
@@ -4088,10 +4096,10 @@
         <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M56" t="s">
         <v>17</v>
@@ -4103,12 +4111,12 @@
         <v>20</v>
       </c>
       <c r="P56" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
@@ -4123,13 +4131,13 @@
         <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
@@ -4138,10 +4146,10 @@
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M57" t="s">
         <v>17</v>
@@ -4153,12 +4161,12 @@
         <v>20</v>
       </c>
       <c r="P57" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -4170,10 +4178,10 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
@@ -4185,10 +4193,10 @@
         <v>17</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -4208,7 +4216,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
@@ -4220,16 +4228,16 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s">
         <v>17</v>
@@ -4238,10 +4246,10 @@
         <v>18</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M59" t="s">
         <v>17</v>
@@ -4253,12 +4261,12 @@
         <v>20</v>
       </c>
       <c r="P59" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -4273,25 +4281,25 @@
         <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s">
         <v>17</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>18</v>
       </c>
       <c r="L60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M60" t="s">
         <v>17</v>
@@ -4303,12 +4311,12 @@
         <v>20</v>
       </c>
       <c r="P60" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
@@ -4358,7 +4366,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
@@ -4379,7 +4387,7 @@
         <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s">
         <v>17</v>
@@ -4408,7 +4416,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -4423,10 +4431,10 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
         <v>18</v>
@@ -4438,10 +4446,10 @@
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M63" t="s">
         <v>17</v>
@@ -4453,12 +4461,12 @@
         <v>20</v>
       </c>
       <c r="P63" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
@@ -4473,13 +4481,13 @@
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -4488,10 +4496,10 @@
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M64" t="s">
         <v>17</v>
@@ -4503,12 +4511,12 @@
         <v>20</v>
       </c>
       <c r="P64" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -4558,7 +4566,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
@@ -4573,7 +4581,7 @@
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
@@ -4608,7 +4616,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
@@ -4623,7 +4631,7 @@
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G67" t="s">
         <v>17</v>
@@ -4632,13 +4640,13 @@
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -4647,7 +4655,7 @@
         <v>17</v>
       </c>
       <c r="N67" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O67" t="s">
         <v>20</v>
@@ -4658,7 +4666,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
@@ -4670,19 +4678,19 @@
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G68" t="s">
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
@@ -4697,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="N68" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O68" t="s">
         <v>20</v>
@@ -4708,7 +4716,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -4720,10 +4728,10 @@
         <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
         <v>17</v>
@@ -4741,30 +4749,30 @@
         <v>17</v>
       </c>
       <c r="L69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M69" t="s">
         <v>17</v>
       </c>
       <c r="N69" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="O69" t="s">
         <v>20</v>
       </c>
       <c r="P69" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
@@ -4773,13 +4781,13 @@
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -4788,42 +4796,42 @@
         <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M70" t="s">
         <v>17</v>
       </c>
       <c r="N70" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O70" t="s">
         <v>20</v>
       </c>
       <c r="P70" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
         <v>17</v>
@@ -4835,10 +4843,10 @@
         <v>17</v>
       </c>
       <c r="J71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -4847,10 +4855,10 @@
         <v>17</v>
       </c>
       <c r="N71" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="O71" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="P71" t="s">
         <v>15</v>
@@ -4858,7 +4866,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
@@ -4870,10 +4878,10 @@
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
         <v>17</v>
@@ -4885,10 +4893,10 @@
         <v>17</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -4897,10 +4905,10 @@
         <v>17</v>
       </c>
       <c r="N72" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O72" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="P72" t="s">
         <v>15</v>
@@ -4908,7 +4916,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
@@ -4923,7 +4931,7 @@
         <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G73" t="s">
         <v>17</v>
@@ -4935,7 +4943,7 @@
         <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K73" t="s">
         <v>18</v>
@@ -4947,7 +4955,7 @@
         <v>17</v>
       </c>
       <c r="N73" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O73" t="s">
         <v>20</v>
@@ -4958,7 +4966,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
@@ -4979,25 +4987,25 @@
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
       </c>
       <c r="J74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K74" t="s">
         <v>18</v>
       </c>
       <c r="L74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M74" t="s">
         <v>17</v>
       </c>
       <c r="N74" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O74" t="s">
         <v>20</v>
@@ -5008,7 +5016,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
@@ -5029,7 +5037,7 @@
         <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -5041,7 +5049,7 @@
         <v>18</v>
       </c>
       <c r="L75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M75" t="s">
         <v>17</v>
@@ -5058,7 +5066,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -5108,7 +5116,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
@@ -5123,7 +5131,7 @@
         <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
@@ -5158,10 +5166,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -5173,7 +5181,7 @@
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
@@ -5182,13 +5190,13 @@
         <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J78" t="s">
         <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -5200,7 +5208,7 @@
         <v>19</v>
       </c>
       <c r="O78" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="P78" t="s">
         <v>15</v>
@@ -5208,10 +5216,10 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -5223,7 +5231,7 @@
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
@@ -5232,13 +5240,13 @@
         <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -5250,7 +5258,7 @@
         <v>19</v>
       </c>
       <c r="O79" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="P79" t="s">
         <v>15</v>
@@ -5258,22 +5266,22 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G80" t="s">
         <v>17</v>
@@ -5308,7 +5316,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
@@ -5358,37 +5366,37 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G82" t="s">
         <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
       </c>
       <c r="J82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -5397,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="N82" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="O82" t="s">
         <v>20</v>
@@ -5408,28 +5416,28 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
         <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -5438,7 +5446,7 @@
         <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -5450,7 +5458,7 @@
         <v>19</v>
       </c>
       <c r="O83" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="P83" t="s">
         <v>15</v>
@@ -5458,7 +5466,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
@@ -5470,10 +5478,10 @@
         <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
         <v>17</v>
@@ -5485,10 +5493,10 @@
         <v>17</v>
       </c>
       <c r="J84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -5497,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="N84" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O84" t="s">
         <v>20</v>
@@ -5508,7 +5516,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
@@ -5520,16 +5528,16 @@
         <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -5538,7 +5546,7 @@
         <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -5550,7 +5558,7 @@
         <v>19</v>
       </c>
       <c r="O85" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="P85" t="s">
         <v>15</v>
@@ -5558,28 +5566,28 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G86" t="s">
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -5588,13 +5596,13 @@
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N86" t="s">
         <v>19</v>
@@ -5608,7 +5616,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
@@ -5629,7 +5637,7 @@
         <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87" t="s">
         <v>17</v>
@@ -5653,6 +5661,106 @@
         <v>20</v>
       </c>
       <c r="P87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" t="s">
+        <v>19</v>
+      </c>
+      <c r="O88" t="s">
+        <v>20</v>
+      </c>
+      <c r="P88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" t="s">
+        <v>19</v>
+      </c>
+      <c r="O89" t="s">
+        <v>20</v>
+      </c>
+      <c r="P89" t="s">
         <v>15</v>
       </c>
     </row>
